--- a/Data/EC/NIT-9003225022.xlsx
+++ b/Data/EC/NIT-9003225022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99BF837C-FEDF-4277-AB6C-1D7974FC24C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{602733E7-5E25-4E9B-B6A8-9FD952B1536F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{39D1697D-2565-4668-A211-2DB7B8A6EEAD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D702BD36-C291-407A-8E23-CBA66C46D8AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="62">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,103 +65,124 @@
     <t>CC</t>
   </si>
   <si>
+    <t>73203527</t>
+  </si>
+  <si>
+    <t>YAN CARLOS RAMOS JULIO</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>73153389</t>
+  </si>
+  <si>
+    <t>JOSE MIGUEL NARVAEZ FUENTES</t>
+  </si>
+  <si>
+    <t>1013588837</t>
+  </si>
+  <si>
+    <t>LEONARDO CARLOS ALDANA UPARELA</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>1149189090</t>
+  </si>
+  <si>
+    <t>EMILIO JOSE CRESPO GOMEZ</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>1002344022</t>
+  </si>
+  <si>
+    <t>JANIER DAVID VEGA PEREZ</t>
+  </si>
+  <si>
+    <t>1007842115</t>
+  </si>
+  <si>
+    <t>YORMAN HERNANDEZ MAZA</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>1001835969</t>
+  </si>
+  <si>
+    <t>CARLOS ANDRES CABARCAS HERNANDEZ</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
     <t>73185744</t>
   </si>
   <si>
     <t>BLADIMIR PEREZ CARABALLO</t>
   </si>
   <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
     <t>2102</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>1149189090</t>
-  </si>
-  <si>
-    <t>EMILIO JOSE CRESPO GOMEZ</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>1007842115</t>
-  </si>
-  <si>
-    <t>YORMAN HERNANDEZ MAZA</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>1002344022</t>
-  </si>
-  <si>
-    <t>JANIER DAVID VEGA PEREZ</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>73203527</t>
-  </si>
-  <si>
-    <t>YAN CARLOS RAMOS JULIO</t>
-  </si>
-  <si>
-    <t>73153389</t>
-  </si>
-  <si>
-    <t>JOSE MIGUEL NARVAEZ FUENTES</t>
-  </si>
-  <si>
-    <t>1013588837</t>
-  </si>
-  <si>
-    <t>LEONARDO CARLOS ALDANA UPARELA</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
   </si>
   <si>
     <t>1140835002</t>
@@ -581,7 +602,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D67751EC-9639-6FF2-4216-B01284CF2EF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3173088B-38D5-AEFF-2482-60CB3FA68128}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -932,8 +953,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55A7BF51-64FA-4B6B-B019-08B1AC66A07D}">
-  <dimension ref="B2:J43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED96DFD-B7E8-437E-BE68-6F08491D49F2}">
+  <dimension ref="B2:J48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -944,7 +965,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -957,7 +978,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1002,7 +1023,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1034,12 +1055,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>936583</v>
+        <v>1171441</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1050,17 +1071,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C13" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F13" s="5">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1087,13 +1108,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1110,10 +1131,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>13325</v>
+        <v>52000</v>
       </c>
       <c r="G16" s="18">
-        <v>908526</v>
+        <v>1300000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1124,19 +1145,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>36341</v>
+        <v>52000</v>
       </c>
       <c r="G17" s="18">
-        <v>908526</v>
+        <v>1001000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1147,19 +1168,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F18" s="18">
-        <v>36341</v>
+        <v>58240</v>
       </c>
       <c r="G18" s="18">
-        <v>908526</v>
+        <v>1456000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1170,19 +1191,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F19" s="18">
-        <v>36341</v>
+        <v>58240</v>
       </c>
       <c r="G19" s="18">
-        <v>908526</v>
+        <v>1456000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1193,19 +1214,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="17" t="s">
-        <v>16</v>
-      </c>
       <c r="E20" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F20" s="18">
-        <v>40001</v>
+        <v>58240</v>
       </c>
       <c r="G20" s="18">
-        <v>1300000</v>
+        <v>1456000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1216,19 +1237,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="17" t="s">
-        <v>16</v>
-      </c>
       <c r="E21" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F21" s="18">
-        <v>40001</v>
+        <v>58240</v>
       </c>
       <c r="G21" s="18">
-        <v>1300000</v>
+        <v>1456000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1239,19 +1260,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="17" t="s">
-        <v>16</v>
-      </c>
       <c r="E22" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F22" s="18">
-        <v>40001</v>
+        <v>58240</v>
       </c>
       <c r="G22" s="18">
-        <v>1300000</v>
+        <v>1456000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1262,19 +1283,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="17" t="s">
-        <v>16</v>
-      </c>
       <c r="E23" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F23" s="18">
-        <v>40001</v>
+        <v>58240</v>
       </c>
       <c r="G23" s="18">
-        <v>1300000</v>
+        <v>1456000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1285,19 +1306,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="17" t="s">
-        <v>16</v>
-      </c>
       <c r="E24" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F24" s="18">
-        <v>40001</v>
+        <v>58240</v>
       </c>
       <c r="G24" s="18">
-        <v>1300000</v>
+        <v>1456000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1308,19 +1329,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="17" t="s">
-        <v>16</v>
-      </c>
       <c r="E25" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F25" s="18">
-        <v>40001</v>
+        <v>56298</v>
       </c>
       <c r="G25" s="18">
-        <v>1300000</v>
+        <v>1456000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1331,13 +1352,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F26" s="18">
         <v>40001</v>
@@ -1354,13 +1375,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F27" s="18">
         <v>40001</v>
@@ -1377,13 +1398,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F28" s="18">
         <v>40001</v>
@@ -1400,19 +1421,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F29" s="18">
-        <v>46400</v>
+        <v>40001</v>
       </c>
       <c r="G29" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1423,16 +1444,16 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D30" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E30" s="16" t="s">
-        <v>31</v>
-      </c>
       <c r="F30" s="18">
-        <v>52000</v>
+        <v>40001</v>
       </c>
       <c r="G30" s="18">
         <v>1300000</v>
@@ -1446,16 +1467,16 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E31" s="16" t="s">
         <v>31</v>
       </c>
       <c r="F31" s="18">
-        <v>52000</v>
+        <v>40001</v>
       </c>
       <c r="G31" s="18">
         <v>1300000</v>
@@ -1469,16 +1490,16 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F32" s="18">
-        <v>52000</v>
+        <v>40001</v>
       </c>
       <c r="G32" s="18">
         <v>1300000</v>
@@ -1492,19 +1513,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F33" s="18">
-        <v>56298</v>
+        <v>40001</v>
       </c>
       <c r="G33" s="18">
-        <v>1456000</v>
+        <v>1300000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1515,19 +1536,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F34" s="18">
-        <v>58240</v>
+        <v>40001</v>
       </c>
       <c r="G34" s="18">
-        <v>1456000</v>
+        <v>1300000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1538,19 +1559,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="17" t="s">
-        <v>37</v>
-      </c>
       <c r="E35" s="16" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="F35" s="18">
-        <v>58240</v>
+        <v>52000</v>
       </c>
       <c r="G35" s="18">
-        <v>1456000</v>
+        <v>1300000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1561,75 +1582,190 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F36" s="18">
-        <v>58240</v>
+        <v>46400</v>
       </c>
       <c r="G36" s="18">
-        <v>1456000</v>
+        <v>1160000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B37" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="22" t="s">
+      <c r="B37" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D37" s="23" t="s">
+      <c r="F37" s="18">
+        <v>1898</v>
+      </c>
+      <c r="G37" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="20"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B38" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="E37" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="F37" s="24">
+      <c r="D38" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F38" s="18">
+        <v>36341</v>
+      </c>
+      <c r="G38" s="18">
+        <v>908526</v>
+      </c>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="20"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B39" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F39" s="18">
+        <v>36341</v>
+      </c>
+      <c r="G39" s="18">
+        <v>908526</v>
+      </c>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="20"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B40" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F40" s="18">
+        <v>36341</v>
+      </c>
+      <c r="G40" s="18">
+        <v>908526</v>
+      </c>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="20"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B41" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F41" s="18">
+        <v>13325</v>
+      </c>
+      <c r="G41" s="18">
+        <v>908526</v>
+      </c>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="20"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B42" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E42" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" s="24">
         <v>20808</v>
       </c>
-      <c r="G37" s="24">
+      <c r="G42" s="24">
         <v>2601000</v>
       </c>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="26"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B42" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="C42" s="32"/>
-      <c r="H42" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B43" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="C43" s="32"/>
-      <c r="H43" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="26"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B47" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C47" s="32"/>
+      <c r="H47" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B48" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" s="32"/>
+      <c r="H48" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H47:J47"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9003225022.xlsx
+++ b/Data/EC/NIT-9003225022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{602733E7-5E25-4E9B-B6A8-9FD952B1536F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{585901A5-B80A-41F8-AE73-A45466F1630A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D702BD36-C291-407A-8E23-CBA66C46D8AC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DF4BC0BE-7F0A-4CCF-983E-734FA09FB4ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="55">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,6 +65,66 @@
     <t>CC</t>
   </si>
   <si>
+    <t>73185744</t>
+  </si>
+  <si>
+    <t>BLADIMIR PEREZ CARABALLO</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>1149189090</t>
+  </si>
+  <si>
+    <t>EMILIO JOSE CRESPO GOMEZ</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>1007842115</t>
+  </si>
+  <si>
+    <t>YORMAN HERNANDEZ MAZA</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
     <t>73203527</t>
   </si>
   <si>
@@ -80,109 +140,28 @@
     <t>JOSE MIGUEL NARVAEZ FUENTES</t>
   </si>
   <si>
+    <t>1002344022</t>
+  </si>
+  <si>
+    <t>JANIER DAVID VEGA PEREZ</t>
+  </si>
+  <si>
     <t>1013588837</t>
   </si>
   <si>
     <t>LEONARDO CARLOS ALDANA UPARELA</t>
   </si>
   <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
   </si>
   <si>
     <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>1149189090</t>
-  </si>
-  <si>
-    <t>EMILIO JOSE CRESPO GOMEZ</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>1002344022</t>
-  </si>
-  <si>
-    <t>JANIER DAVID VEGA PEREZ</t>
-  </si>
-  <si>
-    <t>1007842115</t>
-  </si>
-  <si>
-    <t>YORMAN HERNANDEZ MAZA</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>1001835969</t>
-  </si>
-  <si>
-    <t>CARLOS ANDRES CABARCAS HERNANDEZ</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>73185744</t>
-  </si>
-  <si>
-    <t>BLADIMIR PEREZ CARABALLO</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
   </si>
   <si>
     <t>1140835002</t>
@@ -287,7 +266,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -300,9 +281,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -502,23 +481,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -546,10 +525,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -602,7 +581,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3173088B-38D5-AEFF-2482-60CB3FA68128}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{648D9469-F741-13F1-0CCF-9A640DB20C4C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -953,8 +932,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED96DFD-B7E8-437E-BE68-6F08491D49F2}">
-  <dimension ref="B2:J48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30C3E6F7-9949-4E20-979A-DF67FAB21705}">
+  <dimension ref="B2:J43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -965,7 +944,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.36328125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -978,7 +957,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1023,7 +1002,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1055,12 +1034,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1171441</v>
+        <v>936583</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1071,17 +1050,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C13" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F13" s="5">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1108,13 +1087,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1131,10 +1110,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>52000</v>
+        <v>13325</v>
       </c>
       <c r="G16" s="18">
-        <v>1300000</v>
+        <v>908526</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1145,19 +1124,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F17" s="18">
-        <v>52000</v>
+        <v>36341</v>
       </c>
       <c r="G17" s="18">
-        <v>1001000</v>
+        <v>908526</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1168,19 +1147,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>58240</v>
+        <v>36341</v>
       </c>
       <c r="G18" s="18">
-        <v>1456000</v>
+        <v>908526</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1191,19 +1170,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>17</v>
-      </c>
       <c r="F19" s="18">
-        <v>58240</v>
+        <v>36341</v>
       </c>
       <c r="G19" s="18">
-        <v>1456000</v>
+        <v>908526</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1214,19 +1193,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F20" s="18">
-        <v>58240</v>
+        <v>40001</v>
       </c>
       <c r="G20" s="18">
-        <v>1456000</v>
+        <v>1300000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1237,19 +1216,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F21" s="18">
-        <v>58240</v>
+        <v>40001</v>
       </c>
       <c r="G21" s="18">
-        <v>1456000</v>
+        <v>1300000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1260,19 +1239,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F22" s="18">
-        <v>58240</v>
+        <v>40001</v>
       </c>
       <c r="G22" s="18">
-        <v>1456000</v>
+        <v>1300000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1283,19 +1262,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F23" s="18">
-        <v>58240</v>
+        <v>40001</v>
       </c>
       <c r="G23" s="18">
-        <v>1456000</v>
+        <v>1300000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1306,19 +1285,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F24" s="18">
-        <v>58240</v>
+        <v>40001</v>
       </c>
       <c r="G24" s="18">
-        <v>1456000</v>
+        <v>1300000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1329,19 +1308,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F25" s="18">
-        <v>56298</v>
+        <v>40001</v>
       </c>
       <c r="G25" s="18">
-        <v>1456000</v>
+        <v>1300000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1352,13 +1331,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F26" s="18">
         <v>40001</v>
@@ -1375,13 +1354,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>27</v>
       </c>
       <c r="F27" s="18">
         <v>40001</v>
@@ -1398,13 +1377,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D28" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="16" t="s">
         <v>25</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>28</v>
       </c>
       <c r="F28" s="18">
         <v>40001</v>
@@ -1421,19 +1400,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F29" s="18">
-        <v>40001</v>
+        <v>46400</v>
       </c>
       <c r="G29" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1444,16 +1423,16 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F30" s="18">
-        <v>40001</v>
+        <v>52000</v>
       </c>
       <c r="G30" s="18">
         <v>1300000</v>
@@ -1467,16 +1446,16 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E31" s="16" t="s">
         <v>31</v>
       </c>
       <c r="F31" s="18">
-        <v>40001</v>
+        <v>52000</v>
       </c>
       <c r="G31" s="18">
         <v>1300000</v>
@@ -1490,16 +1469,16 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F32" s="18">
-        <v>40001</v>
+        <v>52000</v>
       </c>
       <c r="G32" s="18">
         <v>1300000</v>
@@ -1513,19 +1492,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F33" s="18">
-        <v>40001</v>
+        <v>56298</v>
       </c>
       <c r="G33" s="18">
-        <v>1300000</v>
+        <v>1456000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1536,19 +1515,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F34" s="18">
-        <v>40001</v>
+        <v>58240</v>
       </c>
       <c r="G34" s="18">
-        <v>1300000</v>
+        <v>1456000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1559,19 +1538,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="F35" s="18">
-        <v>52000</v>
+        <v>58240</v>
       </c>
       <c r="G35" s="18">
-        <v>1300000</v>
+        <v>1456000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1582,190 +1561,75 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="17" t="s">
-        <v>38</v>
-      </c>
       <c r="E36" s="16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F36" s="18">
-        <v>46400</v>
+        <v>58240</v>
       </c>
       <c r="G36" s="18">
-        <v>1160000</v>
+        <v>1456000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B37" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D37" s="17" t="s">
+      <c r="B37" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E37" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="E37" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F37" s="18">
-        <v>1898</v>
-      </c>
-      <c r="G37" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B38" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F38" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G38" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B39" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="F39" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G39" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B40" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F40" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G40" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B41" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F41" s="18">
-        <v>13325</v>
-      </c>
-      <c r="G41" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
+      <c r="F37" s="24">
+        <v>20808</v>
+      </c>
+      <c r="G37" s="24">
+        <v>2850000</v>
+      </c>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="26"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B42" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="D42" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="E42" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="F42" s="24">
-        <v>20808</v>
-      </c>
-      <c r="G42" s="24">
-        <v>2601000</v>
-      </c>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="26"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B47" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="C47" s="32"/>
-      <c r="H47" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B48" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="C48" s="32"/>
-      <c r="H48" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
+      <c r="B42" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="32"/>
+      <c r="H42" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B43" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" s="32"/>
+      <c r="H43" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="H42:J42"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9003225022.xlsx
+++ b/Data/EC/NIT-9003225022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{585901A5-B80A-41F8-AE73-A45466F1630A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2E508D0-2AFD-4EBB-A793-F1225BFDB43A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DF4BC0BE-7F0A-4CCF-983E-734FA09FB4ED}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{48C958DF-7BBF-424D-A13D-0291E55C3A25}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -266,9 +266,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -281,7 +279,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -475,29 +475,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -516,19 +516,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -581,7 +587,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{648D9469-F741-13F1-0CCF-9A640DB20C4C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF3A0BC7-4FE2-65CC-A90E-E3B50C8C4FA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -932,7 +938,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30C3E6F7-9949-4E20-979A-DF67FAB21705}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59642745-9475-43CC-9512-9D60DEFC658B}">
   <dimension ref="B2:J43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -955,49 +961,49 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
@@ -1005,7 +1011,7 @@
         <v>45</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1021,7 +1027,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9003225022</v>
       </c>
@@ -1037,7 +1043,7 @@
         <v>46</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
         <v>936583</v>
       </c>
@@ -1106,18 +1112,18 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>13325</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="19">
         <v>908526</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
@@ -1129,18 +1135,18 @@
       <c r="D17" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>36341</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="19">
         <v>908526</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
@@ -1152,18 +1158,18 @@
       <c r="D18" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>36341</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="19">
         <v>908526</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
@@ -1175,18 +1181,18 @@
       <c r="D19" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>36341</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="19">
         <v>908526</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
@@ -1198,18 +1204,18 @@
       <c r="D20" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="19">
         <v>40001</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="19">
         <v>1300000</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
@@ -1221,18 +1227,18 @@
       <c r="D21" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="19">
         <v>40001</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="19">
         <v>1300000</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
@@ -1244,18 +1250,18 @@
       <c r="D22" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="19">
         <v>40001</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="19">
         <v>1300000</v>
       </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
@@ -1267,18 +1273,18 @@
       <c r="D23" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="19">
         <v>40001</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="19">
         <v>1300000</v>
       </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
@@ -1290,18 +1296,18 @@
       <c r="D24" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="19">
         <v>40001</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="19">
         <v>1300000</v>
       </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
@@ -1313,18 +1319,18 @@
       <c r="D25" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="19">
         <v>40001</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="19">
         <v>1300000</v>
       </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
@@ -1336,18 +1342,18 @@
       <c r="D26" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="19">
         <v>40001</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="19">
         <v>1300000</v>
       </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
@@ -1359,18 +1365,18 @@
       <c r="D27" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="19">
         <v>40001</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="19">
         <v>1300000</v>
       </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
@@ -1382,18 +1388,18 @@
       <c r="D28" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="19">
         <v>40001</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="19">
         <v>1300000</v>
       </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
@@ -1405,18 +1411,18 @@
       <c r="D29" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="19">
         <v>46400</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="19">
         <v>1423500</v>
       </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
@@ -1428,18 +1434,18 @@
       <c r="D30" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="19">
         <v>52000</v>
       </c>
-      <c r="G30" s="18">
+      <c r="G30" s="19">
         <v>1300000</v>
       </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
@@ -1451,18 +1457,18 @@
       <c r="D31" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F31" s="19">
         <v>52000</v>
       </c>
-      <c r="G31" s="18">
+      <c r="G31" s="19">
         <v>1300000</v>
       </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
@@ -1474,18 +1480,18 @@
       <c r="D32" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="19">
         <v>52000</v>
       </c>
-      <c r="G32" s="18">
+      <c r="G32" s="19">
         <v>1300000</v>
       </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
@@ -1497,18 +1503,18 @@
       <c r="D33" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="19">
         <v>56298</v>
       </c>
-      <c r="G33" s="18">
+      <c r="G33" s="19">
         <v>1456000</v>
       </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
@@ -1520,18 +1526,18 @@
       <c r="D34" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F34" s="19">
         <v>58240</v>
       </c>
-      <c r="G34" s="18">
+      <c r="G34" s="19">
         <v>1456000</v>
       </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="21"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
@@ -1543,18 +1549,18 @@
       <c r="D35" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="19">
         <v>58240</v>
       </c>
-      <c r="G35" s="18">
+      <c r="G35" s="19">
         <v>1456000</v>
       </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="21"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
@@ -1566,47 +1572,47 @@
       <c r="D36" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="19">
         <v>58240</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G36" s="19">
         <v>1456000</v>
       </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="21"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B37" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="22" t="s">
+      <c r="B37" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="D37" s="23" t="s">
+      <c r="D37" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="E37" s="22" t="s">
+      <c r="E37" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="F37" s="24">
+      <c r="F37" s="26">
         <v>20808</v>
       </c>
-      <c r="G37" s="24">
+      <c r="G37" s="26">
         <v>2850000</v>
       </c>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="26"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="28"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B42" s="32" t="s">
+      <c r="B42" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="32"/>
+      <c r="C42" s="34"/>
       <c r="H42" s="1" t="s">
         <v>53</v>
       </c>
@@ -1614,10 +1620,10 @@
       <c r="J42" s="1"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B43" s="32" t="s">
+      <c r="B43" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="C43" s="32"/>
+      <c r="C43" s="34"/>
       <c r="H43" s="1" t="s">
         <v>54</v>
       </c>
